--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.7474643506203034</v>
+        <v>9.7474643494580615</v>
       </c>
       <c r="C2">
-        <v>12.361072255788581</v>
+        <v>12.361072256179661</v>
       </c>
       <c r="D2">
-        <v>17.462209529166568</v>
+        <v>17.462209579860577</v>
       </c>
       <c r="E2">
-        <v>9.0556352927985344</v>
+        <v>9.0556352804987945</v>
       </c>
       <c r="F2">
-        <v>8.3004197903657673</v>
+        <v>8.300419795727052</v>
       </c>
       <c r="G2">
-        <v>10.566770495775849</v>
+        <v>10.566770493484855</v>
       </c>
       <c r="H2">
-        <v>16.610677699386105</v>
+        <v>16.610677675755642</v>
       </c>
       <c r="I2">
-        <v>16.063536871870795</v>
+        <v>16.063536853199963</v>
       </c>
       <c r="J2">
-        <v>16.214428487336392</v>
+        <v>16.214428467119234</v>
       </c>
       <c r="K2">
-        <v>14.333161555913126</v>
+        <v>14.333161556707719</v>
       </c>
       <c r="L2">
-        <v>22.805197974296338</v>
+        <v>22.805198219477312</v>
       </c>
       <c r="M2">
-        <v>8.8914566685806076</v>
+        <v>8.8914566595277726</v>
       </c>
       <c r="N2">
-        <v>15.015885271261244</v>
+        <v>15.015885266242865</v>
       </c>
       <c r="O2">
-        <v>10.654069298609832</v>
+        <v>10.65406927831711</v>
       </c>
       <c r="P2">
-        <v>20.935776953158872</v>
+        <v>20.935776932578399</v>
       </c>
       <c r="Q2">
-        <v>14.302072874246523</v>
+        <v>14.302072874342961</v>
       </c>
       <c r="R2">
-        <v>15.43074188748896</v>
+        <v>15.430741855631982</v>
       </c>
       <c r="S2">
-        <v>14.397653095943515</v>
+        <v>14.397653129064516</v>
       </c>
       <c r="T2">
-        <v>16.595489193256483</v>
+        <v>16.59548918560569</v>
       </c>
       <c r="U2">
-        <v>13.115646308771272</v>
+        <v>13.11564629837722</v>
       </c>
       <c r="V2">
-        <v>18.899072570046243</v>
+        <v>18.89907246305863</v>
       </c>
       <c r="W2">
-        <v>19.247512525033933</v>
+        <v>19.247512632299614</v>
       </c>
       <c r="X2">
-        <v>14.288537529860159</v>
+        <v>14.288537511983879</v>
       </c>
       <c r="Y2">
-        <v>9.8601919650056065</v>
+        <v>9.8601919619642295</v>
       </c>
       <c r="Z2">
-        <v>16.025290903214859</v>
+        <v>16.025290903502118</v>
       </c>
       <c r="AA2">
-        <v>11.389411616245477</v>
+        <v>11.389411557391172</v>
       </c>
       <c r="AB2">
-        <v>15.638126356448977</v>
+        <v>15.638126368142245</v>
       </c>
       <c r="AC2">
-        <v>15.572384219358492</v>
+        <v>15.572384265197833</v>
       </c>
       <c r="AD2">
-        <v>9.4224734224421489</v>
+        <v>9.4224734973443631</v>
       </c>
       <c r="AE2">
-        <v>11.048337586467728</v>
+        <v>11.048337624926084</v>
       </c>
       <c r="AF2">
-        <v>14.295296580522447</v>
+        <v>14.295296556358561</v>
       </c>
       <c r="AG2">
-        <v>8.65699657461664</v>
+        <v>8.6569965767708119</v>
       </c>
       <c r="AH2">
-        <v>15.605632328147642</v>
+        <v>15.605632343586159</v>
       </c>
       <c r="AI2">
-        <v>16.506698596485581</v>
+        <v>16.506698705242449</v>
       </c>
       <c r="AJ2">
-        <v>19.540589882670993</v>
+        <v>19.540589868851793</v>
       </c>
       <c r="AK2">
-        <v>14.899942521294975</v>
+        <v>14.899942484482176</v>
       </c>
       <c r="AL2">
-        <v>7.0550411798034354</v>
+        <v>7.0550411761931393</v>
       </c>
       <c r="AM2">
-        <v>15.380396925752216</v>
+        <v>15.380396980945317</v>
       </c>
       <c r="AN2">
-        <v>7.842579462906075</v>
+        <v>7.8425795026476139</v>
       </c>
       <c r="AO2">
-        <v>20.778802187852492</v>
+        <v>20.778802180073601</v>
       </c>
       <c r="AP2">
-        <v>15.48755105418198</v>
+        <v>15.487551072085001</v>
       </c>
       <c r="AQ2">
-        <v>13.303031917003644</v>
+        <v>13.303031899786658</v>
       </c>
       <c r="AR2">
-        <v>9.6959011751522155</v>
+        <v>9.6959011604066543</v>
       </c>
       <c r="AS2">
-        <v>13.739764132492041</v>
+        <v>13.739764136920225</v>
       </c>
       <c r="AT2">
-        <v>6.3290837142839029</v>
+        <v>6.3290836713153222</v>
       </c>
       <c r="AU2">
-        <v>17.037569847357037</v>
+        <v>17.037569869751358</v>
       </c>
       <c r="AV2">
-        <v>15.279848396531008</v>
+        <v>15.279848428366417</v>
       </c>
       <c r="AW2">
-        <v>18.351554225969608</v>
+        <v>18.351554318103538</v>
       </c>
       <c r="AX2">
-        <v>6.7278084887798544</v>
+        <v>6.7278084860730907</v>
       </c>
       <c r="AY2">
-        <v>14.972425206071843</v>
+        <v>14.97242520194836</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>12.806800947674994</v>
+        <v>12.806800964289778</v>
       </c>
       <c r="C3">
-        <v>15.556944011699088</v>
+        <v>15.55694398144119</v>
       </c>
       <c r="D3">
-        <v>13.869973503297974</v>
+        <v>13.869973522497123</v>
       </c>
       <c r="E3">
-        <v>4.8572584853179057</v>
+        <v>4.8572584570796034</v>
       </c>
       <c r="F3">
-        <v>16.988532604536239</v>
+        <v>16.988532594676869</v>
       </c>
       <c r="G3">
-        <v>10.692902939803364</v>
+        <v>10.692902934938363</v>
       </c>
       <c r="H3">
-        <v>10.430078071088436</v>
+        <v>10.430078071671781</v>
       </c>
       <c r="I3">
-        <v>12.053992783408969</v>
+        <v>12.053992777272716</v>
       </c>
       <c r="J3">
-        <v>9.8972376647942593</v>
+        <v>9.8972376228623844</v>
       </c>
       <c r="K3">
-        <v>7.5058667168424389</v>
+        <v>7.5058667094093909</v>
       </c>
       <c r="L3">
-        <v>14.119952095010365</v>
+        <v>14.119952084233644</v>
       </c>
       <c r="M3">
-        <v>8.2716846670624964</v>
+        <v>8.270960200217111</v>
       </c>
       <c r="N3">
-        <v>13.133227671485059</v>
+        <v>13.133227646912529</v>
       </c>
       <c r="O3">
-        <v>13.619551458531877</v>
+        <v>13.619551474655086</v>
       </c>
       <c r="P3">
-        <v>15.581237162125618</v>
+        <v>15.581237125408849</v>
       </c>
       <c r="Q3">
-        <v>14.160287041622174</v>
+        <v>14.16028704227525</v>
       </c>
       <c r="R3">
-        <v>15.234204620270095</v>
+        <v>15.234204646145873</v>
       </c>
       <c r="S3">
-        <v>14.910943325317179</v>
+        <v>14.910943333074879</v>
       </c>
       <c r="T3">
-        <v>15.391894475650048</v>
+        <v>15.391894483977484</v>
       </c>
       <c r="U3">
-        <v>14.379692897921263</v>
+        <v>14.379692908048643</v>
       </c>
       <c r="V3">
-        <v>20.856792671485785</v>
+        <v>20.856792680276449</v>
       </c>
       <c r="W3">
-        <v>18.682103873008145</v>
+        <v>18.682103869602695</v>
       </c>
       <c r="X3">
-        <v>15.355208351352088</v>
+        <v>15.355208351682853</v>
       </c>
       <c r="Y3">
-        <v>10.042909397838429</v>
+        <v>10.042909413008335</v>
       </c>
       <c r="Z3">
-        <v>13.00070499269474</v>
+        <v>13.000704997239374</v>
       </c>
       <c r="AA3">
-        <v>13.285068818637029</v>
+        <v>13.285068871040163</v>
       </c>
       <c r="AB3">
-        <v>8.5415371739684431</v>
+        <v>8.5415371902884374</v>
       </c>
       <c r="AC3">
-        <v>10.023843978181386</v>
+        <v>10.023843971910537</v>
       </c>
       <c r="AD3">
-        <v>8.2525784541295035</v>
+        <v>8.2525783993049213</v>
       </c>
       <c r="AE3">
-        <v>12.7352351737239</v>
+        <v>12.735235163839366</v>
       </c>
       <c r="AF3">
-        <v>9.2386364163446171</v>
+        <v>9.2386364299857853</v>
       </c>
       <c r="AG3">
-        <v>15.278779126485606</v>
+        <v>15.278779102239715</v>
       </c>
       <c r="AH3">
-        <v>6.7129119783117206</v>
+        <v>6.7129119159967354</v>
       </c>
       <c r="AI3">
-        <v>5.6873153717738134</v>
+        <v>5.6873153854282599</v>
       </c>
       <c r="AJ3">
-        <v>7.9547732432488427</v>
+        <v>7.954773299764085</v>
       </c>
       <c r="AK3">
-        <v>8.1262047607367869</v>
+        <v>8.126204748520852</v>
       </c>
       <c r="AL3">
-        <v>13.181281711674186</v>
+        <v>13.181281731874673</v>
       </c>
       <c r="AM3">
-        <v>11.131336494111704</v>
+        <v>11.131336492850405</v>
       </c>
       <c r="AN3">
-        <v>13.651377154978748</v>
+        <v>13.651377144362005</v>
       </c>
       <c r="AO3">
-        <v>14.355583059763715</v>
+        <v>14.355583101380619</v>
       </c>
       <c r="AP3">
-        <v>11.805584422314794</v>
+        <v>11.805584421581914</v>
       </c>
       <c r="AQ3">
-        <v>17.275245114719219</v>
+        <v>17.275245119168503</v>
       </c>
       <c r="AR3">
-        <v>13.805814718677055</v>
+        <v>13.805814751264311</v>
       </c>
       <c r="AS3">
-        <v>16.368017652354091</v>
+        <v>16.368017687015325</v>
       </c>
       <c r="AT3">
-        <v>12.878723934800128</v>
+        <v>12.878723951454987</v>
       </c>
       <c r="AU3">
-        <v>22.274953444666888</v>
+        <v>22.274953478963109</v>
       </c>
       <c r="AV3">
-        <v>13.059557199095961</v>
+        <v>13.059557227913068</v>
       </c>
       <c r="AW3">
-        <v>9.8369915122172067</v>
+        <v>9.8369914777958911</v>
       </c>
       <c r="AX3">
-        <v>19.144138641704771</v>
+        <v>19.144138690428594</v>
       </c>
       <c r="AY3">
-        <v>12.113805470608469</v>
+        <v>12.113805462739121</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_trial_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>9.7474643494580615</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>12.361072256179661</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>17.462209579860577</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>9.0556352804987945</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>8.300419795727052</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>10.566770493484855</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>16.610677675755642</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>16.063536853199963</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>16.214428467119234</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>14.333161556707719</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>22.805198219477312</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>8.8914566595277726</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>15.015885266242865</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>10.65406927831711</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>20.935776932578399</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.302072874342961</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>15.430741855631982</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>14.397653129064516</v>
+        <v>16.731202537604627</v>
       </c>
       <c r="T2">
         <v>16.59548918560569</v>
@@ -588,55 +477,55 @@
         <v>16.025290903502118</v>
       </c>
       <c r="AA2">
-        <v>11.389411557391172</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>15.638126368142245</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>15.572384265197833</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>9.4224734973443631</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>11.048337624926084</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>14.295296556358561</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>8.6569965767708119</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>15.605632343586159</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>16.506698705242449</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>19.540589868851793</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>14.899942484482176</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>7.0550411761931393</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>15.380396980945317</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>7.8425795026476139</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>20.778802180073601</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>15.487551072085001</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>13.303031899786658</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>9.6959011604066543</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>12.806800964289778</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>15.55694398144119</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>13.869973522497123</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4.8572584570796034</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>16.988532594676869</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>10.692902934938363</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>10.430078071671781</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>12.053992777272716</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>9.8972376228623844</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>7.5058667094093909</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>14.119952084233644</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>8.270960200217111</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>13.133227646912529</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>13.619551474655086</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>15.581237125408849</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.16028704227525</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>15.234204646145873</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>14.910943333074879</v>
@@ -743,55 +629,55 @@
         <v>13.000704997239374</v>
       </c>
       <c r="AA3">
-        <v>13.285068871040163</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>8.5415371902884374</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>10.023843971910537</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>8.2525783993049213</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>12.735235163839366</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>9.2386364299857853</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>15.278779102239715</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>6.7129119159967354</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>5.6873153854282599</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>7.954773299764085</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>8.126204748520852</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>13.181281731874673</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>11.131336492850405</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>13.651377144362005</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>14.355583101380619</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>11.805584421581914</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>17.275245119168503</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>13.805814751264311</v>

--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.7474643506203034</v>
+        <v>10.65406927831711</v>
       </c>
       <c r="C2">
-        <v>13.441508970789904</v>
+        <v>15.430741855631982</v>
       </c>
       <c r="D2">
-        <v>17.462209529166568</v>
+        <v>7.8425795026476139</v>
       </c>
       <c r="E2">
-        <v>9.0556352927985344</v>
+        <v>13.303031899786658</v>
       </c>
       <c r="F2">
         <v>8.3004197903657673</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>12.806800947674994</v>
+        <v>12.959001009682119</v>
       </c>
       <c r="C3">
-        <v>15.556944011699088</v>
+        <v>15.234204646145873</v>
       </c>
       <c r="D3">
-        <v>13.869973503297974</v>
+        <v>13.473689143994417</v>
       </c>
       <c r="E3">
-        <v>4.8572584853179057</v>
+        <v>15.152048798862683</v>
       </c>
       <c r="F3">
         <v>16.988532604536239</v>

--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_trial_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.7474643506203034</v>
+        <v>15.343105725750167</v>
       </c>
       <c r="C2">
-        <v>13.441508970789904</v>
+        <v>10.65406927831711</v>
       </c>
       <c r="D2">
-        <v>17.462209529166568</v>
+        <v>15.380396980945317</v>
       </c>
       <c r="E2">
-        <v>9.0556352927985344</v>
+        <v>7.8425795026476139</v>
       </c>
       <c r="F2">
         <v>8.3004197903657673</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>12.806800947674994</v>
+        <v>13.133227646912529</v>
       </c>
       <c r="C3">
-        <v>15.556944011699088</v>
+        <v>12.959001009682119</v>
       </c>
       <c r="D3">
-        <v>13.869973503297974</v>
+        <v>11.131336492850405</v>
       </c>
       <c r="E3">
-        <v>4.5458611593168845</v>
+        <v>13.473689143994417</v>
       </c>
       <c r="F3">
         <v>16.988532604536239</v>

--- a/data_output/prism_passive/all_passive_out_licht_pennation_GM_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_pennation_GM_trial_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>9.7474643494580615</v>
+      </c>
+      <c r="C2">
+        <v>13.441508962242384</v>
+      </c>
+      <c r="D2">
+        <v>17.462209579860577</v>
+      </c>
+      <c r="E2">
+        <v>9.0556352804987945</v>
+      </c>
+      <c r="F2">
+        <v>8.300419795727052</v>
+      </c>
+      <c r="G2">
+        <v>8.3263603303861711</v>
+      </c>
+      <c r="H2">
+        <v>16.610677675755642</v>
+      </c>
+      <c r="I2">
+        <v>14.62358398631323</v>
+      </c>
+      <c r="J2">
+        <v>16.214428467119234</v>
+      </c>
+      <c r="K2">
+        <v>14.333161556707719</v>
+      </c>
+      <c r="L2">
+        <v>21.925849867931525</v>
+      </c>
+      <c r="M2">
+        <v>9.4792720507721562</v>
+      </c>
+      <c r="N2">
         <v>15.343105725750167</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>10.65406927831711</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>20.668635458185147</v>
+      </c>
+      <c r="Q2">
+        <v>14.302072874342961</v>
+      </c>
+      <c r="R2">
+        <v>15.430741855631982</v>
+      </c>
+      <c r="T2">
+        <v>16.674561370022314</v>
+      </c>
+      <c r="U2">
+        <v>13.11564629837722</v>
+      </c>
+      <c r="V2">
+        <v>17.84897381066806</v>
+      </c>
+      <c r="W2">
+        <v>19.247512632299614</v>
+      </c>
+      <c r="X2">
+        <v>14.288537511983879</v>
+      </c>
+      <c r="Y2">
+        <v>9.8601919619642295</v>
+      </c>
+      <c r="Z2">
+        <v>16.025290903502118</v>
+      </c>
+      <c r="AA2">
+        <v>11.389411557391172</v>
+      </c>
+      <c r="AB2">
+        <v>15.638126368142245</v>
+      </c>
+      <c r="AC2">
+        <v>15.572384265197833</v>
+      </c>
+      <c r="AD2">
+        <v>9.4224734973443631</v>
+      </c>
+      <c r="AE2">
+        <v>11.048337624926084</v>
+      </c>
+      <c r="AF2">
+        <v>14.295296556358561</v>
+      </c>
+      <c r="AG2">
+        <v>8.6569965767708119</v>
+      </c>
+      <c r="AH2">
+        <v>15.605632343586159</v>
+      </c>
+      <c r="AI2">
+        <v>16.506698705242449</v>
+      </c>
+      <c r="AJ2">
+        <v>19.540589868851793</v>
+      </c>
+      <c r="AK2">
+        <v>14.899942484482176</v>
+      </c>
+      <c r="AL2">
+        <v>7.0550411761931393</v>
+      </c>
+      <c r="AM2">
         <v>15.380396980945317</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>7.8425795026476139</v>
       </c>
-      <c r="F2">
-        <v>8.3004197903657673</v>
-      </c>
-      <c r="G2">
-        <v>8.3263603122069565</v>
-      </c>
-      <c r="H2">
-        <v>16.610677699386105</v>
-      </c>
-      <c r="I2">
-        <v>14.623583987126528</v>
-      </c>
-      <c r="J2">
-        <v>16.214428487336392</v>
-      </c>
-      <c r="K2">
-        <v>14.333161555913126</v>
-      </c>
-      <c r="L2">
-        <v>21.925849468123637</v>
-      </c>
-      <c r="M2">
-        <v>9.4792720535780148</v>
-      </c>
-      <c r="N2">
-        <v>15.34310572163338</v>
-      </c>
-      <c r="O2">
-        <v>10.654069298609832</v>
-      </c>
-      <c r="P2">
-        <v>20.668635477180363</v>
-      </c>
-      <c r="Q2">
-        <v>14.302072874246523</v>
-      </c>
-      <c r="R2">
-        <v>15.43074188748896</v>
-      </c>
-      <c r="T2">
-        <v>16.674561382012165</v>
-      </c>
-      <c r="U2">
-        <v>13.115646308771272</v>
-      </c>
-      <c r="V2">
-        <v>17.848973981416204</v>
-      </c>
-      <c r="W2">
-        <v>19.247512525033933</v>
-      </c>
-      <c r="X2">
-        <v>14.288537529860159</v>
-      </c>
-      <c r="Y2">
-        <v>9.8601919650056065</v>
-      </c>
-      <c r="Z2">
-        <v>16.025290903214859</v>
-      </c>
-      <c r="AA2">
-        <v>11.389411616245477</v>
-      </c>
-      <c r="AB2">
-        <v>15.638126356448977</v>
-      </c>
-      <c r="AC2">
-        <v>15.572384219358492</v>
-      </c>
-      <c r="AD2">
-        <v>9.4224734224421489</v>
-      </c>
-      <c r="AE2">
-        <v>11.048337586467728</v>
-      </c>
-      <c r="AF2">
-        <v>14.295296580522447</v>
-      </c>
-      <c r="AG2">
-        <v>8.65699657461664</v>
-      </c>
-      <c r="AH2">
-        <v>15.605632328147642</v>
-      </c>
-      <c r="AI2">
-        <v>16.506698596485581</v>
-      </c>
-      <c r="AJ2">
-        <v>19.540589882670993</v>
-      </c>
-      <c r="AK2">
-        <v>14.899942521294975</v>
-      </c>
-      <c r="AL2">
-        <v>7.0550411798034354</v>
-      </c>
-      <c r="AM2">
-        <v>15.380396925752216</v>
-      </c>
-      <c r="AN2">
-        <v>7.842579462906075</v>
-      </c>
       <c r="AO2">
-        <v>20.778802187852492</v>
+        <v>20.778802180073601</v>
       </c>
       <c r="AP2">
-        <v>15.133200627457382</v>
+        <v>15.133200656222499</v>
       </c>
       <c r="AQ2">
-        <v>13.303031917003644</v>
+        <v>13.303031899786658</v>
       </c>
       <c r="AR2">
-        <v>9.6959011751522155</v>
+        <v>9.6959011604066543</v>
       </c>
       <c r="AS2">
-        <v>13.739764132492041</v>
+        <v>13.739764136920225</v>
       </c>
       <c r="AT2">
-        <v>6.3290837142839029</v>
+        <v>6.3290836713153222</v>
       </c>
       <c r="AU2">
-        <v>20.141218838862496</v>
+        <v>20.141218821348112</v>
       </c>
       <c r="AV2">
-        <v>15.279848396531008</v>
+        <v>15.279848428366417</v>
       </c>
       <c r="AW2">
-        <v>18.351554225969608</v>
+        <v>18.351554318103538</v>
       </c>
       <c r="AX2">
-        <v>6.7278084887798544</v>
+        <v>6.7278084860730907</v>
       </c>
       <c r="AY2">
-        <v>14.972425206071843</v>
+        <v>14.97242520194836</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>12.806800964289778</v>
+      </c>
+      <c r="C3">
+        <v>15.55694398144119</v>
+      </c>
+      <c r="D3">
+        <v>13.869973522497123</v>
+      </c>
+      <c r="E3">
+        <v>4.54586113012612</v>
+      </c>
+      <c r="F3">
+        <v>16.988532594676869</v>
+      </c>
+      <c r="G3">
+        <v>10.692902934938363</v>
+      </c>
+      <c r="H3">
+        <v>10.430078071671781</v>
+      </c>
+      <c r="I3">
+        <v>12.053992777272716</v>
+      </c>
+      <c r="J3">
+        <v>9.8972376228623844</v>
+      </c>
+      <c r="K3">
+        <v>8.2404840754964788</v>
+      </c>
+      <c r="L3">
+        <v>14.119952084233644</v>
+      </c>
+      <c r="M3">
+        <v>9.5057162026036348</v>
+      </c>
+      <c r="N3">
         <v>13.133227646912529</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>12.959001009682119</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>15.581237125408849</v>
+      </c>
+      <c r="Q3">
+        <v>14.16028704227525</v>
+      </c>
+      <c r="R3">
+        <v>15.234204646145873</v>
+      </c>
+      <c r="S3">
+        <v>14.910943333074879</v>
+      </c>
+      <c r="T3">
+        <v>15.391894483977484</v>
+      </c>
+      <c r="U3">
+        <v>14.379692908048643</v>
+      </c>
+      <c r="V3">
+        <v>20.519005210642238</v>
+      </c>
+      <c r="W3">
+        <v>18.677473009459796</v>
+      </c>
+      <c r="X3">
+        <v>15.355208351682853</v>
+      </c>
+      <c r="Y3">
+        <v>10.042909413008335</v>
+      </c>
+      <c r="Z3">
+        <v>13.000704997239374</v>
+      </c>
+      <c r="AA3">
+        <v>13.285068871040163</v>
+      </c>
+      <c r="AB3">
+        <v>8.5415371902884374</v>
+      </c>
+      <c r="AC3">
+        <v>10.023843971910537</v>
+      </c>
+      <c r="AD3">
+        <v>8.2525783993049213</v>
+      </c>
+      <c r="AE3">
+        <v>12.735235163839366</v>
+      </c>
+      <c r="AF3">
+        <v>9.2386364299857853</v>
+      </c>
+      <c r="AG3">
+        <v>15.278779102239715</v>
+      </c>
+      <c r="AH3">
+        <v>6.7129119159967354</v>
+      </c>
+      <c r="AI3">
+        <v>9.8704050585665737</v>
+      </c>
+      <c r="AJ3">
+        <v>7.954773299764085</v>
+      </c>
+      <c r="AK3">
+        <v>8.126204748520852</v>
+      </c>
+      <c r="AL3">
+        <v>13.181281731874673</v>
+      </c>
+      <c r="AM3">
         <v>11.131336492850405</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>13.473689143994417</v>
       </c>
-      <c r="F3">
-        <v>16.988532604536239</v>
-      </c>
-      <c r="G3">
-        <v>10.692902939803364</v>
-      </c>
-      <c r="H3">
-        <v>10.430078071088436</v>
-      </c>
-      <c r="I3">
-        <v>12.053992783408969</v>
-      </c>
-      <c r="J3">
-        <v>9.8972376647942593</v>
-      </c>
-      <c r="K3">
-        <v>8.240484090355876</v>
-      </c>
-      <c r="L3">
-        <v>14.119952095010365</v>
-      </c>
-      <c r="M3">
-        <v>9.5069707862942145</v>
-      </c>
-      <c r="N3">
-        <v>13.133227671485059</v>
-      </c>
-      <c r="O3">
-        <v>12.959000993524288</v>
-      </c>
-      <c r="P3">
-        <v>15.581237162125618</v>
-      </c>
-      <c r="Q3">
-        <v>14.160287041622174</v>
-      </c>
-      <c r="R3">
-        <v>15.234204620270095</v>
-      </c>
-      <c r="S3">
-        <v>14.910943325317179</v>
-      </c>
-      <c r="T3">
-        <v>15.391894475650048</v>
-      </c>
-      <c r="U3">
-        <v>14.379692897921263</v>
-      </c>
-      <c r="V3">
-        <v>20.519005208981191</v>
-      </c>
-      <c r="W3">
-        <v>18.677473039302747</v>
-      </c>
-      <c r="X3">
-        <v>15.355208351352088</v>
-      </c>
-      <c r="Y3">
-        <v>10.042909397838429</v>
-      </c>
-      <c r="Z3">
-        <v>13.00070499269474</v>
-      </c>
-      <c r="AA3">
-        <v>13.285068818637029</v>
-      </c>
-      <c r="AB3">
-        <v>8.5415371739684431</v>
-      </c>
-      <c r="AC3">
-        <v>10.023843978181386</v>
-      </c>
-      <c r="AD3">
-        <v>8.2525784541295035</v>
-      </c>
-      <c r="AE3">
-        <v>12.7352351737239</v>
-      </c>
-      <c r="AF3">
-        <v>9.2386364163446171</v>
-      </c>
-      <c r="AG3">
-        <v>15.278779126485606</v>
-      </c>
-      <c r="AH3">
-        <v>6.7129119783117206</v>
-      </c>
-      <c r="AI3">
-        <v>9.8704050183958429</v>
-      </c>
-      <c r="AJ3">
-        <v>7.9547732432488427</v>
-      </c>
-      <c r="AK3">
-        <v>8.1262047607367869</v>
-      </c>
-      <c r="AL3">
-        <v>13.181281711674186</v>
-      </c>
-      <c r="AM3">
-        <v>11.131336494111704</v>
-      </c>
-      <c r="AN3">
-        <v>13.473689156807868</v>
-      </c>
       <c r="AO3">
-        <v>14.355583059763715</v>
+        <v>14.355583101380619</v>
       </c>
       <c r="AP3">
-        <v>11.805584422314794</v>
+        <v>11.805584421581914</v>
       </c>
       <c r="AQ3">
-        <v>15.152048798970505</v>
+        <v>15.152048798862683</v>
       </c>
       <c r="AR3">
-        <v>13.805814718677055</v>
+        <v>13.805814751264311</v>
       </c>
       <c r="AS3">
-        <v>16.368017652354091</v>
+        <v>16.368017687015325</v>
       </c>
       <c r="AT3">
-        <v>12.878723934800128</v>
+        <v>12.878723951454987</v>
       </c>
       <c r="AU3">
-        <v>21.184556851833648</v>
+        <v>21.184557067915993</v>
       </c>
       <c r="AV3">
-        <v>13.059557199095961</v>
+        <v>13.059557227913068</v>
       </c>
       <c r="AW3">
-        <v>9.8369915122172067</v>
+        <v>9.8369914777958911</v>
       </c>
       <c r="AX3">
-        <v>19.144138641704771</v>
+        <v>19.144138690428594</v>
       </c>
       <c r="AY3">
-        <v>12.113805470608469</v>
+        <v>12.113805462739121</v>
       </c>
     </row>
   </sheetData>
